--- a/results/mp/logistic/corona/confidence/168/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -85,52 +82,58 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>a</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -139,88 +142,91 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>you</t>
@@ -229,37 +235,31 @@
     <t>our</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>in</t>
@@ -620,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7705479452054794</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7705479452054794</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5135135135135135</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4406779661016949</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.856020942408377</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L9">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M9">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4338624338624338</v>
+        <v>0.4437984496124031</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4302325581395349</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3818181818181818</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3422818791946309</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3066666666666666</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.80625</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1289,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2305555555555556</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.765625</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.130952380952381</v>
+        <v>0.08579088471849866</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,37 +1389,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.09115281501340483</v>
+        <v>0.01751540707103471</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>339</v>
+        <v>3029</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,37 +1439,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01986754966887417</v>
+        <v>0.01440677966101695</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="F18">
-        <v>0.5900000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2072</v>
+        <v>2326</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,37 +1489,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01972195279663757</v>
+        <v>0.01367279585101367</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="F19">
-        <v>0.8100000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3032</v>
+        <v>2092</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.74375</v>
+        <v>0.765625</v>
       </c>
       <c r="L19">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,37 +1539,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01445578231292517</v>
+        <v>0.0104940970703979</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F20">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2318</v>
+        <v>2263</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,37 +1589,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01060278814058512</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="F21">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7272727272727273</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,28 +1639,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.008768084173608066</v>
+        <v>0.006778868630201029</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E22">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="F22">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2261</v>
+        <v>4249</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>0.7142857142857143</v>
@@ -1689,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00732484076433121</v>
+        <v>0.006106248727864848</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>0.73</v>
@@ -1707,19 +1707,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3117</v>
+        <v>4883</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,87 +1739,63 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007248071077858312</v>
+        <v>0.006045179764556157</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="F24">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4246</v>
+        <v>3124</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
-      <c r="M24">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.007103714227724781</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>104</v>
-      </c>
-      <c r="E25">
-        <v>0.66</v>
-      </c>
-      <c r="F25">
-        <v>0.34</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4892</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.6976744186046512</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1857,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.6323529411764706</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L27">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M27">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1883,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6234309623430963</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L28">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M28">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1909,47 +1885,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6109215017064846</v>
+        <v>0.6192468619246861</v>
       </c>
       <c r="L29">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="M29">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1961,47 +1937,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2013,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.4719101123595505</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2039,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4634146341463415</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>0.95</v>
@@ -2065,21 +2041,21 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4509803921568628</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2091,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2117,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2143,47 +2119,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.375</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.3698630136986301</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2195,73 +2171,73 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.05695142378559464</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L40">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.04796163069544365</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>397</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.04567307692307692</v>
+        <v>0.328125</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2273,67 +2249,67 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>397</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.03846153846153846</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>525</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.0327683615819209</v>
+        <v>0.04796163069544365</v>
       </c>
       <c r="L44">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2568</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.02753441802252816</v>
+        <v>0.04036697247706422</v>
       </c>
       <c r="L45">
         <v>22</v>
@@ -2351,99 +2327,99 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>777</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.02738336713995943</v>
+        <v>0.03549695740365112</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.02444444444444445</v>
+        <v>0.02700096432015429</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>878</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.02217936354869817</v>
+        <v>0.02558398220244716</v>
       </c>
       <c r="L48">
         <v>23</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1014</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.0213903743315508</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N49">
         <v>0.79</v>
@@ -2455,33 +2431,33 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2379</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.01919446192573946</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="L50">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N50">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="O50">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3117</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2489,259 +2465,311 @@
         <v>79</v>
       </c>
       <c r="K51">
-        <v>0.01796875</v>
+        <v>0.01883633319380494</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N51">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0.28</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1257</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="K52">
-        <v>0.01641414141414142</v>
+        <v>0.01822752985543683</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M52">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N52">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="O52">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1558</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K53">
-        <v>0.01408726276658188</v>
+        <v>0.01671365283930729</v>
       </c>
       <c r="L53">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M53">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N53">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="O53">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5039</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.01390848619229994</v>
+        <v>0.01644479248238058</v>
       </c>
       <c r="L54">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="O54">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4892</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K55">
-        <v>0.01384228187919463</v>
+        <v>0.01601875366282477</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M55">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="N55">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="O55">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2351</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="K56">
-        <v>0.01380295097572585</v>
+        <v>0.01517067003792667</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="N56">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
       <c r="O56">
-        <v>0.5900000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2072</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="K57">
-        <v>0.01303538175046555</v>
+        <v>0.01163061177017911</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N57">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="O57">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2120</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K58">
-        <v>0.01223241590214067</v>
+        <v>0.01040681173131504</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N58">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="O58">
-        <v>0.42</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2261</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K59">
-        <v>0.01186874563649058</v>
+        <v>0.00962800875273523</v>
       </c>
       <c r="L59">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="N59">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="O59">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4246</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="K60">
-        <v>0.0115138592750533</v>
+        <v>0.009341429238673517</v>
       </c>
       <c r="L60">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N60">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="O60">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2318</v>
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>0.008102345415778251</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>53</v>
+      </c>
+      <c r="N61">
+        <v>0.36</v>
+      </c>
+      <c r="O61">
+        <v>0.64</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <v>0.007861120209629872</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>78</v>
+      </c>
+      <c r="N62">
+        <v>0.31</v>
+      </c>
+      <c r="O62">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3029</v>
       </c>
     </row>
   </sheetData>
